--- a/Figures and tables/S2 Table marker and kin heritability.xlsx
+++ b/Figures and tables/S2 Table marker and kin heritability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\HKT\Cat Does Plant\Figures and tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\HKT po\Revision\Cat Does Plant\Figures and tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{67676F8B-4F3D-4C78-8FAA-490142560CAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA79200-77E8-4C80-9480-37BE84460CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S2 Table marker and kin heritab" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Trait</t>
   </si>
@@ -94,18 +94,6 @@
     <t>Stress_Chlorophyll_B</t>
   </si>
   <si>
-    <t>Width_WO_husk</t>
-  </si>
-  <si>
-    <t>Length_WO_husk</t>
-  </si>
-  <si>
-    <t>Height_WO_husk</t>
-  </si>
-  <si>
-    <t>Seed_Weight</t>
-  </si>
-  <si>
     <t>Root_thickness</t>
   </si>
   <si>
@@ -140,12 +128,6 @@
   </si>
   <si>
     <t>Lost_Chlorophyll_B</t>
-  </si>
-  <si>
-    <t>Seed_volume</t>
-  </si>
-  <si>
-    <t>Seed_density</t>
   </si>
   <si>
     <t>Supplementary Table 2. Heritability of traits calculated from genomic kinship and broad-sense heritability calculated from variance components.</t>
@@ -154,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -988,24 +970,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1027,7 +1011,7 @@
         <v>0.54123747799999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1038,7 +1022,7 @@
         <v>0.59298425300000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1049,7 +1033,7 @@
         <v>0.563166642</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1060,7 +1044,7 @@
         <v>0.69079142900000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1071,7 +1055,7 @@
         <v>0.31612185999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1082,7 +1066,7 @@
         <v>0.37128776800000002</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1093,7 +1077,7 @@
         <v>0.30608983200000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1104,7 +1088,7 @@
         <v>0.54754035099999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1115,7 +1099,7 @@
         <v>0.45117154199999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1126,7 +1110,7 @@
         <v>0.43238400100000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1137,7 +1121,7 @@
         <v>0.52907811699999996</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1148,7 +1132,7 @@
         <v>0.59079138200000003</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1159,7 +1143,7 @@
         <v>0.53013097099999995</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1170,7 +1154,7 @@
         <v>0.58965927299999998</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1181,7 +1165,7 @@
         <v>0.34819467399999998</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1192,7 +1176,7 @@
         <v>0.33835704799999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1203,7 +1187,7 @@
         <v>0.43467913200000002</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1214,7 +1198,7 @@
         <v>0.33767503900000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1225,7 +1209,7 @@
         <v>0.49092544300000002</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1236,7 +1220,7 @@
         <v>0.60081362800000004</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1247,166 +1231,100 @@
         <v>0.55035411899999997</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.96049033399999995</v>
-      </c>
-      <c r="C24">
-        <v>0.75900279599999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.28591635100000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.96830659399999996</v>
-      </c>
-      <c r="C25">
-        <v>0.86286929199999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.24029289500000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.79989182400000003</v>
-      </c>
-      <c r="C26">
-        <v>0.60511408499999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.30267830099999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.99816125600000005</v>
-      </c>
-      <c r="C27">
-        <v>1.0036619440000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.44279449399999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.28591635100000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.0508891000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.24029289500000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.3502563999999997E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.30267830099999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.18663664599999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.44279449399999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.4703699999999996E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32">
-        <v>2.0508891000000001E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.12827545500000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33">
-        <v>6.3502563999999997E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.1422646E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.18663664599999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.17712304200000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35">
-        <v>8.4703699999999996E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>0.12827545500000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>2.1422646E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>0.17712304200000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
         <v>0.18127787300000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>0.84672656000000002</v>
-      </c>
-      <c r="C40">
-        <v>0.72408045399999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>8.5070382999999999E-2</v>
-      </c>
-      <c r="C41">
-        <v>0.25848484799999999</v>
       </c>
     </row>
   </sheetData>
